--- a/transcription.xlsx
+++ b/transcription.xlsx
@@ -338,7 +338,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -349,14 +349,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Bach - Jauchzet, frohlocket</t>
+          <t>Bach, Jauchzit, Frohlocket</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rolling stones - paint it black</t>
+          <t>Beethoven, Symphony No. 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Haydn, The Creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Handel, Messiah</t>
         </is>
       </c>
     </row>
